--- a/public/discipline-assesment/discipline-assesment (Juli).xlsx
+++ b/public/discipline-assesment/discipline-assesment (Juli).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TYRSA KRISMEDIANTY\Tyrsa 2024\Sistem 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C871CA3-72AB-4F88-B81D-48D9A7978058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449B8853-A8EE-4E8E-BBAF-C69EAF2FBE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2411,8 +2411,8 @@
   <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E285" sqref="E285"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3853,7 +3853,9 @@
       <c r="A63" s="6">
         <v>7</v>
       </c>
-      <c r="B63" s="6"/>
+      <c r="B63" s="6">
+        <v>2024</v>
+      </c>
       <c r="C63" s="7">
         <v>10245</v>
       </c>
